--- a/Symphony/2021/May/All Details/22.05.2021/MC Bank Statement May-2021.xlsx
+++ b/Symphony/2021/May/All Details/22.05.2021/MC Bank Statement May-2021.xlsx
@@ -9071,6 +9071,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9087,9 +9090,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9102,8 +9102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A105" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10684,14 +10684,14 @@
         <v>295915</v>
       </c>
       <c r="C22" s="99">
-        <v>393370</v>
+        <v>397820</v>
       </c>
       <c r="D22" s="99">
         <v>1730</v>
       </c>
       <c r="E22" s="99">
         <f>C22+D22</f>
-        <v>395100</v>
+        <v>399550</v>
       </c>
       <c r="F22" s="100"/>
       <c r="G22" s="91"/>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="C33" s="99">
         <f>SUM(C5:C32)</f>
-        <v>7534828</v>
+        <v>7539278</v>
       </c>
       <c r="D33" s="99">
         <f>SUM(D5:D32)</f>
@@ -11448,11 +11448,11 @@
       </c>
       <c r="E33" s="99">
         <f>SUM(E5:E32)</f>
-        <v>7566768</v>
+        <v>7571218</v>
       </c>
       <c r="F33" s="107">
         <f>B33-E33</f>
-        <v>-229490</v>
+        <v>-233940</v>
       </c>
       <c r="G33" s="121"/>
       <c r="H33" s="257"/>
@@ -11928,7 +11928,7 @@
         <v>119</v>
       </c>
       <c r="C40" s="264">
-        <v>6450</v>
+        <v>2000</v>
       </c>
       <c r="D40" s="92" t="s">
         <v>212</v>
@@ -17823,7 +17823,7 @@
       <c r="B119" s="311"/>
       <c r="C119" s="165">
         <f>SUM(C37:C118)</f>
-        <v>2406906</v>
+        <v>2402456</v>
       </c>
       <c r="D119" s="166"/>
       <c r="F119" s="158"/>
@@ -17976,7 +17976,7 @@
       <c r="B121" s="313"/>
       <c r="C121" s="170">
         <f>C119+L142</f>
-        <v>2406906</v>
+        <v>2402456</v>
       </c>
       <c r="D121" s="171"/>
       <c r="F121" s="153"/>
@@ -20708,8 +20708,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -20897,7 +20897,7 @@
         <v>143</v>
       </c>
       <c r="E7" s="236">
-        <v>466768</v>
+        <v>471218</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="53"/>
@@ -20973,7 +20973,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="68">
-        <v>2406906</v>
+        <v>2402456</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="53"/>
